--- a/typecheck/benchmark/incremental_16/Abs{x,Tree{Add,[x..x]}}.BottomUpEagerSubst.Test-2.xlsx
+++ b/typecheck/benchmark/incremental_16/Abs{x,Tree{Add,[x..x]}}.BottomUpEagerSubst.Test-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="8840" yWindow="1140" windowWidth="24760" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Abs{x,Tree{Add,(x..x)}}.BottomU" sheetId="1" r:id="rId1"/>
@@ -127,8 +127,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -147,7 +159,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -155,6 +167,12 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -162,6 +180,12 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,12 +518,12 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E1" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -549,8 +573,8 @@
         <v>5.1949722222222201</v>
       </c>
       <c r="E2">
-        <f>C2/D2</f>
-        <v>0.57748143236783456</v>
+        <f>C$9/D2</f>
+        <v>12615.081890075346</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -583,8 +607,8 @@
         <v>5.3305555555555504</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3/D3</f>
-        <v>2.8139656070870274</v>
+        <f t="shared" ref="E3:E9" si="1">C$9/D3</f>
+        <v>12294.215737363222</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -618,7 +642,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>11.529838795772399</v>
+        <v>11993.777547316575</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -652,7 +676,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>41.21693216716659</v>
+        <v>10592.751566961813</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -686,7 +710,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>122.12657018928499</v>
+        <v>7823.6214832402657</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -720,7 +744,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>259.66294193075726</v>
+        <v>4155.5582171995547</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -754,7 +778,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>368.1416768826291</v>
+        <v>1472.6341203993834</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -809,7 +833,7 @@
     <row r="11" spans="1:10">
       <c r="E11">
         <f>SUM(E2:E8)/COUNTA(E2:E8)</f>
-        <v>115.15277242929503</v>
+        <v>8706.8057946508798</v>
       </c>
     </row>
   </sheetData>
